--- a/REGULAR/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/VELUZ, DORMILUNA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB103F89-99F8-4DBA-8F85-4568CC2B4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -287,12 +280,18 @@
   </si>
   <si>
     <t>2/6,7/2023</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>3/28-31/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -978,25 +977,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1303,34 +1302,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A97" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="4308" topLeftCell="A105" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1351,7 +1350,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1368,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1388,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1397,7 +1396,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1410,7 +1409,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1427,7 +1426,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1471,7 +1470,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>20</v>
+        <v>17.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1481,12 +1480,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.5</v>
+        <v>38.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -1573,7 +1572,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -1594,7 +1593,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -1613,7 +1612,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -1639,7 +1638,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -1662,7 +1661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
@@ -1711,7 +1710,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -1732,7 +1731,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -1749,7 +1748,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -1766,7 +1765,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -1783,7 +1782,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43221</v>
       </c>
@@ -1803,7 +1802,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43252</v>
       </c>
@@ -1823,7 +1822,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43282</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -1868,7 +1867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -1887,7 +1886,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -1906,7 +1905,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -1925,7 +1924,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43313</v>
       </c>
@@ -1951,7 +1950,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43344</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -1996,7 +1995,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43374</v>
       </c>
@@ -2016,7 +2015,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43405</v>
       </c>
@@ -2036,7 +2035,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43435</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="48" t="s">
         <v>57</v>
       </c>
@@ -2080,7 +2079,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43466</v>
       </c>
@@ -2106,7 +2105,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2123,7 +2122,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43497</v>
       </c>
@@ -2149,7 +2148,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43525</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>45</v>
@@ -2194,7 +2193,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43556</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43586</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43617</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>45</v>
@@ -2289,7 +2288,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43647</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>58</v>
@@ -2336,7 +2335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>50</v>
@@ -2355,7 +2354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>50</v>
@@ -2374,7 +2373,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -2394,7 +2393,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>46</v>
@@ -2441,7 +2440,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>60</v>
@@ -2460,7 +2459,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>60</v>
@@ -2479,7 +2478,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43739</v>
       </c>
@@ -2499,7 +2498,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43770</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>46</v>
@@ -2546,7 +2545,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43800</v>
       </c>
@@ -2572,7 +2571,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -2596,7 +2595,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2614,7 +2613,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>63</v>
       </c>
@@ -2632,7 +2631,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43831</v>
       </c>
@@ -2658,7 +2657,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>46</v>
@@ -2677,7 +2676,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>64</v>
@@ -2694,7 +2693,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -2713,7 +2712,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>43862</v>
       </c>
@@ -2733,7 +2732,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43891</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>43922</v>
       </c>
@@ -2779,7 +2778,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>43952</v>
       </c>
@@ -2799,7 +2798,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>43983</v>
       </c>
@@ -2823,7 +2822,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44013</v>
       </c>
@@ -2843,7 +2842,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44044</v>
       </c>
@@ -2863,7 +2862,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44075</v>
       </c>
@@ -2883,7 +2882,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44105</v>
       </c>
@@ -2903,7 +2902,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44136</v>
       </c>
@@ -2923,7 +2922,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44166</v>
       </c>
@@ -2949,7 +2948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>69</v>
       </c>
@@ -2967,7 +2966,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44197</v>
       </c>
@@ -2993,7 +2992,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44228</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44256</v>
       </c>
@@ -3039,7 +3038,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44287</v>
       </c>
@@ -3059,7 +3058,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44317</v>
       </c>
@@ -3079,7 +3078,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44348</v>
       </c>
@@ -3099,7 +3098,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44378</v>
       </c>
@@ -3119,7 +3118,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44409</v>
       </c>
@@ -3139,7 +3138,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44440</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44470</v>
       </c>
@@ -3183,7 +3182,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44501</v>
       </c>
@@ -3203,7 +3202,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44531</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="48" t="s">
         <v>71</v>
       </c>
@@ -3247,7 +3246,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44562</v>
       </c>
@@ -3267,7 +3266,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44593</v>
       </c>
@@ -3287,7 +3286,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44621</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44652</v>
       </c>
@@ -3333,7 +3332,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44682</v>
       </c>
@@ -3357,7 +3356,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -3379,7 +3378,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>77</v>
@@ -3399,7 +3398,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>53</v>
@@ -3419,7 +3418,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44713</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44743</v>
       </c>
@@ -3459,7 +3458,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44774</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44805</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44835</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>44866</v>
       </c>
@@ -3543,7 +3542,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44896</v>
       </c>
@@ -3569,7 +3568,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>79</v>
       </c>
@@ -3587,7 +3586,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44927</v>
       </c>
@@ -3613,7 +3612,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -3639,24 +3638,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <f>EDATE(A109,1)</f>
+        <v>44986</v>
+      </c>
+      <c r="B110" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39">
+        <v>4</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+      <c r="K110" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <f t="shared" ref="A111:A124" si="0">EDATE(A110,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -3671,8 +3684,11 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -3687,8 +3703,11 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -3703,8 +3722,11 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -3719,8 +3741,11 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <f t="shared" si="0"/>
+        <v>45139</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -3735,8 +3760,11 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <f t="shared" si="0"/>
+        <v>45170</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -3751,8 +3779,11 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <f t="shared" si="0"/>
+        <v>45200</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -3767,8 +3798,11 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <f t="shared" si="0"/>
+        <v>45231</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -3783,8 +3817,11 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <f t="shared" si="0"/>
+        <v>45261</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -3799,8 +3836,11 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <f t="shared" si="0"/>
+        <v>45292</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -3815,8 +3855,11 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <f t="shared" si="0"/>
+        <v>45323</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -3831,8 +3874,11 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <f t="shared" si="0"/>
+        <v>45352</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -3847,8 +3893,11 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <f t="shared" si="0"/>
+        <v>45383</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -3863,8 +3912,11 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <f t="shared" si="0"/>
+        <v>45413</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -3879,7 +3931,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3895,7 +3947,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3911,7 +3963,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3927,7 +3979,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3943,7 +3995,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3959,7 +4011,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3975,7 +4027,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3991,7 +4043,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4007,7 +4059,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4023,7 +4075,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4039,7 +4091,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4055,7 +4107,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4071,7 +4123,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4087,7 +4139,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4103,7 +4155,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4119,7 +4171,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4135,7 +4187,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4151,7 +4203,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4167,7 +4219,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4183,7 +4235,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4199,7 +4251,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4215,7 +4267,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4231,7 +4283,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4247,7 +4299,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4263,7 +4315,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4279,7 +4331,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4295,7 +4347,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4311,7 +4363,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4327,7 +4379,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4343,7 +4395,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4359,7 +4411,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4375,7 +4427,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4391,7 +4443,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="15"/>
       <c r="C157" s="42"/>
@@ -4422,10 +4474,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4448,28 +4500,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4482,7 +4534,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4511,7 +4563,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4535,17 +4587,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4566,7 +4618,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4593,7 +4645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4619,7 +4671,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4645,7 +4697,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4671,7 +4723,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4697,7 +4749,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4723,7 +4775,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4749,7 +4801,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4775,7 +4827,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4795,7 +4847,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4815,7 +4867,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4835,7 +4887,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4856,7 +4908,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4877,7 +4929,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4898,7 +4950,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4919,7 +4971,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4940,7 +4992,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4961,7 +5013,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4982,7 +5034,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5003,7 +5055,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5024,7 +5076,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5066,7 +5118,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5087,7 +5139,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5108,7 +5160,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5129,7 +5181,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5150,7 +5202,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5171,7 +5223,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5192,7 +5244,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5213,7 +5265,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5234,7 +5286,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5255,7 +5307,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5264,7 +5316,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5273,7 +5325,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5282,7 +5334,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5291,7 +5343,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5300,7 +5352,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5309,7 +5361,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5318,7 +5370,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5327,7 +5379,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5336,7 +5388,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5345,7 +5397,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5354,7 +5406,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5363,7 +5415,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5372,7 +5424,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5381,7 +5433,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5390,7 +5442,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5399,7 +5451,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5408,7 +5460,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5417,7 +5469,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5426,7 +5478,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5435,7 +5487,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5444,7 +5496,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5453,7 +5505,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5462,7 +5514,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5471,7 +5523,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5480,7 +5532,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5489,7 +5541,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5498,7 +5550,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5507,7 +5559,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5516,7 +5568,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/VELUZ, DORMILUNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB103F89-99F8-4DBA-8F85-4568CC2B4303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,12 +285,15 @@
   </si>
   <si>
     <t>3/28-31/2023</t>
+  </si>
+  <si>
+    <t>4/3,4/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -522,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +668,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,25 +982,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K157" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1302,93 +1307,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A105" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A103" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1396,7 +1401,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1409,24 +1414,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1480,12 +1485,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.75</v>
+        <v>36.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1507,7 +1512,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1527,7 +1532,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>45</v>
@@ -1572,7 +1577,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>46</v>
@@ -1593,7 +1598,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -1612,7 +1617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -1638,7 +1643,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -1661,7 +1666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>46</v>
@@ -1710,7 +1715,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>50</v>
@@ -1731,7 +1736,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>53</v>
@@ -1748,7 +1753,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>53</v>
@@ -1765,7 +1770,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -1782,7 +1787,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43221</v>
       </c>
@@ -1802,7 +1807,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43252</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="15"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43282</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -1867,7 +1872,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>45</v>
@@ -1886,7 +1891,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>45</v>
@@ -1905,7 +1910,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>46</v>
@@ -1924,7 +1929,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43313</v>
       </c>
@@ -1950,7 +1955,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43344</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>46</v>
@@ -1995,7 +2000,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43374</v>
       </c>
@@ -2015,7 +2020,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43405</v>
       </c>
@@ -2035,7 +2040,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43435</v>
       </c>
@@ -2061,7 +2066,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>57</v>
       </c>
@@ -2079,7 +2084,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43466</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2122,7 +2127,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43497</v>
       </c>
@@ -2148,7 +2153,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43525</v>
       </c>
@@ -2174,7 +2179,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>45</v>
@@ -2193,7 +2198,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43556</v>
       </c>
@@ -2219,7 +2224,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43586</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43617</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>45</v>
@@ -2288,7 +2293,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43647</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>58</v>
@@ -2335,7 +2340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>50</v>
@@ -2354,7 +2359,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>50</v>
@@ -2373,7 +2378,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43678</v>
       </c>
@@ -2393,7 +2398,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43709</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>46</v>
@@ -2440,7 +2445,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>60</v>
@@ -2459,7 +2464,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>60</v>
@@ -2478,7 +2483,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43739</v>
       </c>
@@ -2498,7 +2503,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43770</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>46</v>
@@ -2545,7 +2550,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43800</v>
       </c>
@@ -2571,7 +2576,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>46</v>
@@ -2595,7 +2600,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2613,7 +2618,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>63</v>
       </c>
@@ -2631,7 +2636,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43831</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>46</v>
@@ -2676,7 +2681,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>64</v>
@@ -2693,7 +2698,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -2712,7 +2717,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43862</v>
       </c>
@@ -2732,7 +2737,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>43891</v>
       </c>
@@ -2758,7 +2763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>43922</v>
       </c>
@@ -2778,7 +2783,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43952</v>
       </c>
@@ -2798,7 +2803,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>43983</v>
       </c>
@@ -2822,7 +2827,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44013</v>
       </c>
@@ -2842,7 +2847,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44044</v>
       </c>
@@ -2862,7 +2867,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44075</v>
       </c>
@@ -2882,7 +2887,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44105</v>
       </c>
@@ -2902,7 +2907,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44136</v>
       </c>
@@ -2922,7 +2927,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44166</v>
       </c>
@@ -2948,7 +2953,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>69</v>
       </c>
@@ -2966,7 +2971,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44197</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44228</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44256</v>
       </c>
@@ -3038,7 +3043,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44287</v>
       </c>
@@ -3058,7 +3063,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44317</v>
       </c>
@@ -3078,7 +3083,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44348</v>
       </c>
@@ -3098,7 +3103,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44378</v>
       </c>
@@ -3118,7 +3123,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44409</v>
       </c>
@@ -3138,7 +3143,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44440</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44470</v>
       </c>
@@ -3182,7 +3187,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44501</v>
       </c>
@@ -3202,7 +3207,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44531</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>71</v>
       </c>
@@ -3246,7 +3251,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44562</v>
       </c>
@@ -3266,7 +3271,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44593</v>
       </c>
@@ -3286,7 +3291,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44621</v>
       </c>
@@ -3312,7 +3317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44652</v>
       </c>
@@ -3332,7 +3337,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44682</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>47</v>
@@ -3378,7 +3383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>77</v>
@@ -3398,7 +3403,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>53</v>
@@ -3418,7 +3423,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44713</v>
       </c>
@@ -3438,7 +3443,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44743</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44774</v>
       </c>
@@ -3482,7 +3487,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44805</v>
       </c>
@@ -3502,7 +3507,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44835</v>
       </c>
@@ -3522,7 +3527,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>44866</v>
       </c>
@@ -3542,7 +3547,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44896</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>79</v>
       </c>
@@ -3586,7 +3591,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44927</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -3638,7 +3643,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f>EDATE(A109,1)</f>
         <v>44986</v>
@@ -3665,12 +3670,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" ref="A111:A124" si="0">EDATE(A110,1)</f>
         <v>45017</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
@@ -3679,12 +3686,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H111" s="39"/>
+      <c r="H111" s="39">
+        <v>2</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="0"/>
         <v>45047</v>
@@ -3703,7 +3714,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="0"/>
         <v>45078</v>
@@ -3722,7 +3733,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="0"/>
         <v>45108</v>
@@ -3741,7 +3752,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="0"/>
         <v>45139</v>
@@ -3760,7 +3771,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="0"/>
         <v>45170</v>
@@ -3779,7 +3790,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="0"/>
         <v>45200</v>
@@ -3798,7 +3809,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="0"/>
         <v>45231</v>
@@ -3817,7 +3828,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="0"/>
         <v>45261</v>
@@ -3836,7 +3847,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="0"/>
         <v>45292</v>
@@ -3855,7 +3866,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="0"/>
         <v>45323</v>
@@ -3874,7 +3885,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="0"/>
         <v>45352</v>
@@ -3893,7 +3904,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="0"/>
         <v>45383</v>
@@ -3912,7 +3923,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="0"/>
         <v>45413</v>
@@ -3931,7 +3942,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3947,7 +3958,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3963,7 +3974,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3979,7 +3990,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3995,7 +4006,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4011,7 +4022,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4027,7 +4038,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4043,7 +4054,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4059,7 +4070,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4075,7 +4086,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4091,7 +4102,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4107,7 +4118,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4123,7 +4134,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4139,7 +4150,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4155,7 +4166,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4171,7 +4182,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4187,7 +4198,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4203,7 +4214,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4219,7 +4230,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4235,7 +4246,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4251,7 +4262,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4267,7 +4278,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4283,7 +4294,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4299,7 +4310,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4315,7 +4326,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4331,7 +4342,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4347,7 +4358,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4363,7 +4374,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4379,7 +4390,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4395,7 +4406,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4411,7 +4422,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4427,7 +4438,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4443,7 +4454,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="15"/>
       <c r="C157" s="42"/>
@@ -4460,10 +4471,9 @@
       <c r="K157" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="J2:K2"/>
@@ -4474,10 +4484,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4500,41 +4510,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4563,7 +4573,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4587,17 +4597,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4611,14 +4621,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4645,7 +4655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4671,7 +4681,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4697,7 +4707,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4723,7 +4733,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4749,7 +4759,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4775,7 +4785,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4827,7 +4837,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4847,7 +4857,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4867,7 +4877,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4887,7 +4897,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4950,7 +4960,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4971,7 +4981,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4992,7 +5002,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5013,7 +5023,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5034,7 +5044,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5055,7 +5065,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5097,7 +5107,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5118,7 +5128,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5202,7 +5212,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5223,7 +5233,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5286,7 +5296,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5307,7 +5317,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5316,7 +5326,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5325,7 +5335,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5334,7 +5344,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5343,7 +5353,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5352,7 +5362,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5361,7 +5371,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5370,7 +5380,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5379,7 +5389,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5388,7 +5398,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5397,7 +5407,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5406,7 +5416,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5415,7 +5425,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5424,7 +5434,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5433,7 +5443,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5442,7 +5452,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5451,7 +5461,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5460,7 +5470,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5469,7 +5479,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5478,7 +5488,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5487,7 +5497,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5496,7 +5506,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5505,7 +5515,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5514,7 +5524,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5523,7 +5533,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5532,7 +5542,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5541,7 +5551,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5550,7 +5560,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5559,7 +5569,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5568,7 +5578,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
